--- a/similarities/split_global/harmonic_similarity_timestamps_238.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_238.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,726 +484,726 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_94</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'G:7', 'C:maj']]</t>
+          <t>['Db', 'Ab:7', 'Db']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['C#:maj/F', 'G#:7', 'C#:maj']]</t>
+          <t>['F/A', 'C:7/G', 'F/A']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:30.020000', '0:00:32.120000')]</t>
+          <t>('0:01:25.460000', '0:01:31.620000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:41.320000', '0:00:46.640000')]</t>
+          <t>('0:04:29.320000', '0:04:31.320000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-176#t=30.02']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=85.46</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-94#t=41.32']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=269.32</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_107</t>
+          <t>schubert-winterreise_40</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
+          <t>isophonics_74</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['D:maj/F#', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:maj', 'C:maj/E']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:15.027029', '0:00:22.457415')]</t>
+          <t>('0:01:00.040000', '0:01:07.080000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:01:09.860000', '0:01:13.740000')]</t>
+          <t>('0:00:37.995918', '0:00:46.610521')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-107#t=15.027029']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-40#t=60.04</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=69.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-74#t=37.995918</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_156</t>
+          <t>schubert-winterreise_96</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_103</t>
+          <t>jaah_0</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['A', 'E', 'A', 'E']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj']]</t>
+          <t>['Ab', 'Eb:7', 'Ab']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:00.421247', '0:00:07.505864')]</t>
+          <t>('0:01:08.040000', '0:01:19')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:10.540000', '0:00:13.400000')]</t>
+          <t>('0:00:25.220000', '0:00:27.170000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-156#t=0.421247']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=68.04</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-103#t=10.54']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-0#t=25.22</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
+          <t>isophonics_152</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_77</t>
+          <t>isophonics_28</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:maj', 'A#:min'], ['F:7/A#', 'A#:min', 'D#:min/A#']]</t>
+          <t>['E', 'A/3', 'E/5', 'A/3']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F:min/C', 'C', 'F:min/C'], ['C:7', 'F:min', 'A#:min/C#']]</t>
+          <t>['G', 'C', 'G', 'C']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:11.700000', '0:00:20.020000'), ('0:00:23.040000', '0:00:30.400000')]</t>
+          <t>('0:00:47.176000', '0:00:54.592000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:47.020000', '0:00:51.380000'), ('0:00:24.580000', '0:00:32.940000')]</t>
+          <t>('0:00:04.476213', '0:00:23.110226')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=11.7', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=23.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-152#t=47.176</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=47.02', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-77#t=24.58']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-28#t=4.476213</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>isophonics_298</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_72</t>
+          <t>schubert-winterreise_83</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
+          <t>['G', 'C', 'G']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:01:01.760000', '0:01:09.340000')]</t>
+          <t>('0:00:00.344657', '0:00:11.337709')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:42.150000', '0:01:07.840000')]</t>
+          <t>('0:02:12.300000', '0:02:16.560000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=61.76']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-298#t=0.344657</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-72#t=42.15']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=132.3</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>jaah_79</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_133</t>
+          <t>schubert-winterreise_162</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D/3', 'G', 'D']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:40.490000', '0:00:47.860000')]</t>
+          <t>('0:00:07.590000', '0:00:14.680000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:57.251357', '0:01:13.909779')]</t>
+          <t>('0:00:23.260000', '0:00:26.800000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=40.49']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-79#t=7.59</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-133#t=57.251357']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-162#t=23.26</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>isophonics_78</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_192</t>
+          <t>isophonics_45</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['G:min', 'G#:maj/C', 'G:min'], ['A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>['D', 'E', 'A']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['F:min', 'F#/A#', 'F:min/C'], ['G:hdim7/A#', 'C:7', 'F:min']]</t>
+          <t>['Bb', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:43.640000', '0:00:46.580000'), ('0:01:37.220000', '0:01:50.760000')]</t>
+          <t>('0:00:19.731723', '0:00:27.765827')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:03:09.260000', '0:03:11.680000'), ('0:00:24.240000', '0:00:30.960000')]</t>
+          <t>('0:01:03.861000', '0:01:06.732000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=43.64', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=97.22']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-78#t=19.731723</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-192#t=189.26', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-192#t=24.24']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=63.861</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_266</t>
+          <t>isophonics_180</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_160</t>
+          <t>schubert-winterreise_48</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['E', 'D', 'A']]</t>
+          <t>['F', 'C', 'F']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['Eb:maj', 'Db:maj', 'Ab:maj']]</t>
+          <t>['F:maj', 'C:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:01:29.915646', '0:01:37.020952')]</t>
+          <t>('0:00:00.440395', '0:00:05.558652')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:45.887000', '0:00:51.649000')]</t>
+          <t>('0:00:00.340000', '0:00:17.940000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-266#t=89.915646']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-180#t=0.440395</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-160#t=45.887']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>spotify:track:6Pq9MmkDQYZiiCDpxnvrf6</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-48#t=0.34</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_61</t>
+          <t>schubert-winterreise_101</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>schubert-winterreise_97</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['F#:7/B', 'F#:(3,5,b7,b9)/B', 'B:min']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>['A:7', 'A:(3,5,b7,b9)/G', 'D:min/F']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:18.120000', '0:00:24.540000')]</t>
+          <t>('0:00:04.700000', '0:00:21.620000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:03.044470', '0:00:11.035850')]</t>
+          <t>('0:02:20.860000', '0:02:24.100000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=18.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-101#t=4.7</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-291#t=3.04447']</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=140.86</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_53</t>
+          <t>schubert-winterreise_65</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_7</t>
+          <t>schubert-winterreise_19</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['F#:7/A#', 'B:7/A', 'E:maj/G#']]</t>
+          <t>['D#:min', 'A#:7', 'D#:min']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb:7', 'Eb']]</t>
+          <t>['D:min', 'A:7/E', 'D:min']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:52.580000', '0:00:58.920000')]</t>
+          <t>('0:00:09.100000', '0:00:13.860000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:27.250000', '0:00:30.810000')]</t>
+          <t>('0:00:00.360000', '0:00:05')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=52.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-65#t=9.1</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-7#t=27.25']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-19#t=0.36</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_176</t>
+          <t>jaah_55</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>jaah_87</t>
+          <t>isophonics_96</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['E:7', 'A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>['C', 'F', 'C']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C:7', 'F:min', 'G:hdim7', 'C:7', 'F:min']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:12.780000', '0:00:20.980000')]</t>
+          <t>('0:00:34.410000', '0:00:39.540000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:05.820000', '0:01:24.640000')]</t>
+          <t>('0:00:11.384000', '0:00:18.318000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-176#t=12.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-55#t=34.41</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-87#t=65.82']</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=11.384</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_73</t>
+          <t>isophonics_61</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>schubert-winterreise_179</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['D', 'B:min', 'E:min']]</t>
+          <t>['F#:min', 'C#:7', 'F#:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['G:maj', 'E:min', 'A:min/C']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:06.949138', '0:00:11.546689')]</t>
+          <t>('0:00:24.387324', '0:00:27.452358')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:08.280000', '0:00:17.020000')]</t>
+          <t>('0:02:11.200000', '0:02:16.340000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-73#t=6.949138']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=24.387324</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=8.28']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=131.2</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_55</t>
+          <t>schubert-winterreise_193</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_7</t>
+          <t>schubert-winterreise_53</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['G:min/A#', 'A:hdim7/D#', 'D:7', 'G:min']]</t>
+          <t>['C', 'C/G', 'G:7', 'C']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A:min', 'B:hdim7/D', 'E:7', 'A:min']]</t>
+          <t>['E:maj/G#', 'E:maj/B', 'B:7', 'E:maj/G#']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:33.920000', '0:01:50.760000')]</t>
+          <t>('0:04:10.300000', '0:04:17.660000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:11.940000', '0:00:19.020000')]</t>
+          <t>('0:03:56.780000', '0:04:09.140000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-55#t=93.92']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-193#t=250.3</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-7#t=11.94']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-53#t=236.78</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_74</t>
+          <t>schubert-winterreise_97</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['B:min/F#', 'F#:min', 'C#:7', 'F#:min']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['A#:min', 'F:min', 'C:7', 'F:min']]</t>
+          <t>['D:min', 'A:maj', 'D:min']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:01.980000', '0:00:08.680000')]</t>
+          <t>('0:00:00.780000', '0:00:05.260000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:08.300000', '0:00:14.360000')]</t>
+          <t>('0:00:08.540000', '0:00:14.080000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=1.98']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=0.78</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-74#t=8.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-97#t=8.54</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_297</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_156</t>
+          <t>jaah_6</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['G', 'D', 'G']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['F#:maj', 'C#:maj', 'F#:maj']]</t>
+          <t>['Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:00.421247', '0:00:03.083177')]</t>
+          <t>('0:01:08.820000', '0:01:17.920000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:50.160000', '0:00:52.820000')]</t>
+          <t>('0:00:14.300000', '0:00:15.210000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-297#t=0.421247']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=68.82</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-156#t=50.16']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-6#t=14.3</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
